--- a/resources/experiment 1/predictions/single/RandomForestRegressor/incidence/Ictus (INC).xlsx
+++ b/resources/experiment 1/predictions/single/RandomForestRegressor/incidence/Ictus (INC).xlsx
@@ -452,783 +452,783 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5.761609369669766</v>
+        <v>5.692099502487557</v>
       </c>
       <c r="B2" t="n">
-        <v>0.00849989063025138</v>
+        <v>0.008</v>
       </c>
       <c r="C2" t="n">
-        <v>22.16288851518852</v>
+        <v>21.53199999999999</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.385458133574551</v>
+        <v>1.419999999999999</v>
       </c>
       <c r="B3" t="n">
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>6.246824891774892</v>
+        <v>6.300000000000003</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1.904781797362391</v>
+        <v>1.913353233830843</v>
       </c>
       <c r="B4" t="n">
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>8.05431524771525</v>
+        <v>8.071999999999997</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.545073568664612</v>
+        <v>1.708378109452733</v>
       </c>
       <c r="B5" t="n">
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>6.690952035002034</v>
+        <v>7.228000000000003</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3.817117515237656</v>
+        <v>3.659502487562182</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>0.004</v>
       </c>
       <c r="C6" t="n">
-        <v>14.52080158730159</v>
+        <v>14.836</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4.865960364842452</v>
+        <v>5.053592039800984</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0188877613995463</v>
+        <v>0.044</v>
       </c>
       <c r="C7" t="n">
-        <v>19.76210359270358</v>
+        <v>19.928</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>7.078051845532278</v>
+        <v>7.040199004975123</v>
       </c>
       <c r="B8" t="n">
-        <v>0.01081481481481481</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>26.80730349585055</v>
+        <v>26.95999999999999</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3.207322159046029</v>
+        <v>3.267840796019891</v>
       </c>
       <c r="B9" t="n">
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>14.30307527657527</v>
+        <v>14.34</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>6.826961557030938</v>
+        <v>6.658646766169147</v>
       </c>
       <c r="B10" t="n">
-        <v>0.03369008263166479</v>
+        <v>0.02</v>
       </c>
       <c r="C10" t="n">
-        <v>25.66735913976676</v>
+        <v>26.144</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>6.170502583667293</v>
+        <v>6.048039800995014</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0018943115364168</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>22.9513210974211</v>
+        <v>22.10800000000001</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4.702513606570318</v>
+        <v>4.655641791044771</v>
       </c>
       <c r="B12" t="n">
-        <v>0.02020672268907563</v>
+        <v>0.024</v>
       </c>
       <c r="C12" t="n">
-        <v>18.98164115144115</v>
+        <v>18.80399999999999</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>6.667210257074644</v>
+        <v>6.695383084577109</v>
       </c>
       <c r="B13" t="n">
-        <v>0.02526433970937548</v>
+        <v>0.06000000000000002</v>
       </c>
       <c r="C13" t="n">
-        <v>26.67209287440996</v>
+        <v>25.96399999999999</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>6.67157793140486</v>
+        <v>6.718905472636805</v>
       </c>
       <c r="B14" t="n">
-        <v>0.03790011810367293</v>
+        <v>0.06000000000000001</v>
       </c>
       <c r="C14" t="n">
-        <v>26.81771277366223</v>
+        <v>26.41599999999999</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2.0306896904367</v>
+        <v>2.131860696517406</v>
       </c>
       <c r="B15" t="n">
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>8.32825555555557</v>
+        <v>9.131999999999998</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>3.73597494238762</v>
+        <v>3.663860696517405</v>
       </c>
       <c r="B16" t="n">
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>14.95992049062049</v>
+        <v>15.264</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>4.964185023296211</v>
+        <v>4.925711442786061</v>
       </c>
       <c r="B17" t="n">
-        <v>0.187444925444925</v>
+        <v>0.1040000000000001</v>
       </c>
       <c r="C17" t="n">
-        <v>20.31118497058498</v>
+        <v>20.084</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1.933742162204845</v>
+        <v>1.990328358208951</v>
       </c>
       <c r="B18" t="n">
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>8.578204136604143</v>
+        <v>8.735999999999997</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>6.077420255025421</v>
+        <v>6.196019900497503</v>
       </c>
       <c r="B19" t="n">
-        <v>0.01598888888888889</v>
+        <v>0.016</v>
       </c>
       <c r="C19" t="n">
-        <v>25.67004684944683</v>
+        <v>26.008</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>3.875112354892198</v>
+        <v>3.870845771144271</v>
       </c>
       <c r="B20" t="n">
-        <v>0.02780297088532384</v>
+        <v>0.044</v>
       </c>
       <c r="C20" t="n">
-        <v>16.23983458393458</v>
+        <v>15.768</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2.638214969014564</v>
+        <v>2.590189054726355</v>
       </c>
       <c r="B21" t="n">
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>10.70100740740741</v>
+        <v>10.636</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>6.930626874070881</v>
+        <v>7.075064676616908</v>
       </c>
       <c r="B22" t="n">
-        <v>0.1596846968086578</v>
+        <v>0.188</v>
       </c>
       <c r="C22" t="n">
-        <v>27.5194505636473</v>
+        <v>28.58799999999999</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2.141430758903881</v>
+        <v>2.183442786069638</v>
       </c>
       <c r="B23" t="n">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>9.545567676767678</v>
+        <v>9.875999999999994</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>3.597063772048836</v>
+        <v>3.559462686567157</v>
       </c>
       <c r="B24" t="n">
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>14.60065555555555</v>
+        <v>14.508</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2.759719758351091</v>
+        <v>2.829691542288548</v>
       </c>
       <c r="B25" t="n">
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>11.12210101010101</v>
+        <v>11.50399999999999</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2.990240796019887</v>
+        <v>2.893472636815908</v>
       </c>
       <c r="B26" t="n">
-        <v>0.009333333333333332</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>12.31548123728124</v>
+        <v>12.028</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>7.062815467727401</v>
+        <v>6.98390049751243</v>
       </c>
       <c r="B27" t="n">
-        <v>0.146790407837776</v>
+        <v>0.1440000000000001</v>
       </c>
       <c r="C27" t="n">
-        <v>29.17097567498581</v>
+        <v>29.412</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>5.408824971104067</v>
+        <v>5.504079601990039</v>
       </c>
       <c r="B28" t="n">
-        <v>0.007379448621553886</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>22.07873163133164</v>
+        <v>22.824</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2.28397968096027</v>
+        <v>2.423144278606958</v>
       </c>
       <c r="B29" t="n">
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>10.7306222222222</v>
+        <v>10.9</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>4.962317361604667</v>
+        <v>5.05980099502486</v>
       </c>
       <c r="B30" t="n">
-        <v>0.004044444444444444</v>
+        <v>0.004</v>
       </c>
       <c r="C30" t="n">
-        <v>20.45472782772784</v>
+        <v>20.584</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>6.625065696658226</v>
+        <v>6.339223880597009</v>
       </c>
       <c r="B31" t="n">
-        <v>0.04479546597193659</v>
+        <v>0.07200000000000002</v>
       </c>
       <c r="C31" t="n">
-        <v>24.5933256780257</v>
+        <v>25.22</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>6.475237878926769</v>
+        <v>6.307144278606956</v>
       </c>
       <c r="B32" t="n">
-        <v>0.05216885366095893</v>
+        <v>0.036</v>
       </c>
       <c r="C32" t="n">
-        <v>25.30898662405069</v>
+        <v>25.772</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>6.561138155434884</v>
+        <v>6.571999999999987</v>
       </c>
       <c r="B33" t="n">
-        <v>0.01606566151441084</v>
+        <v>0.024</v>
       </c>
       <c r="C33" t="n">
-        <v>26.75021805400328</v>
+        <v>25.87200000000001</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>5.739379353233829</v>
+        <v>5.89122388059701</v>
       </c>
       <c r="B34" t="n">
-        <v>0.07534612794612792</v>
+        <v>0.044</v>
       </c>
       <c r="C34" t="n">
-        <v>23.39042936507937</v>
+        <v>24.248</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>3.687459969632346</v>
+        <v>3.584477611940291</v>
       </c>
       <c r="B35" t="n">
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>15.12433645983647</v>
+        <v>14.692</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>4.699425704809284</v>
+        <v>5.008577114427847</v>
       </c>
       <c r="B36" t="n">
-        <v>0.009496887750777913</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>19.99083057683056</v>
+        <v>20.532</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>2.861687108318046</v>
+        <v>2.782248756218895</v>
       </c>
       <c r="B37" t="n">
-        <v>0.001333333333333334</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>11.4904380952381</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>6.88066516664337</v>
+        <v>6.991343283582082</v>
       </c>
       <c r="B38" t="n">
-        <v>0.1839895696895693</v>
+        <v>0.1560000000000001</v>
       </c>
       <c r="C38" t="n">
-        <v>29.44161856617431</v>
+        <v>29.816</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>5.322951907131007</v>
+        <v>5.128398009950238</v>
       </c>
       <c r="B39" t="n">
-        <v>0.05994005602240897</v>
+        <v>0.108</v>
       </c>
       <c r="C39" t="n">
-        <v>21.80653333333334</v>
+        <v>21.46</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>2.199251465919369</v>
+        <v>2.29603980099502</v>
       </c>
       <c r="B40" t="n">
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>9.283410678210673</v>
+        <v>9.080000000000005</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>5.065053352286179</v>
+        <v>5.032915422885559</v>
       </c>
       <c r="B41" t="n">
-        <v>0.003666666666666667</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>19.14852010582009</v>
+        <v>19.056</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>6.626288898126742</v>
+        <v>6.702069651741284</v>
       </c>
       <c r="B42" t="n">
-        <v>0.01655366737281631</v>
+        <v>0.052</v>
       </c>
       <c r="C42" t="n">
-        <v>27.53305301400125</v>
+        <v>28.26400000000001</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>5.047504465766395</v>
+        <v>5.077213930348243</v>
       </c>
       <c r="B43" t="n">
-        <v>0.03983333333333335</v>
+        <v>0.008</v>
       </c>
       <c r="C43" t="n">
-        <v>20.43486924186925</v>
+        <v>20.4</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>5.833798496694</v>
+        <v>5.68553233830845</v>
       </c>
       <c r="B44" t="n">
-        <v>0.07242334316247355</v>
+        <v>0.02</v>
       </c>
       <c r="C44" t="n">
-        <v>22.98982083842086</v>
+        <v>22.8</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>6.870114518676456</v>
+        <v>6.749054726368152</v>
       </c>
       <c r="B45" t="n">
-        <v>0.05072910052910056</v>
+        <v>0.08000000000000002</v>
       </c>
       <c r="C45" t="n">
-        <v>27.1875015403287</v>
+        <v>26.50800000000001</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>6.309916462862723</v>
+        <v>6.234726368159194</v>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>0.004</v>
       </c>
       <c r="C46" t="n">
-        <v>24.51721812196516</v>
+        <v>24.19600000000001</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>7.091647340297341</v>
+        <v>7.003820895522382</v>
       </c>
       <c r="B47" t="n">
-        <v>0.05633863541368489</v>
+        <v>0.028</v>
       </c>
       <c r="C47" t="n">
-        <v>27.0075191517609</v>
+        <v>26.90000000000001</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>4.977806795388132</v>
+        <v>5.147641791044768</v>
       </c>
       <c r="B48" t="n">
-        <v>0.05211725659960955</v>
+        <v>0.03999999999999999</v>
       </c>
       <c r="C48" t="n">
-        <v>21.24545702445704</v>
+        <v>21.744</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>2.09015257442943</v>
+        <v>2.068935323383074</v>
       </c>
       <c r="B49" t="n">
         <v>0</v>
       </c>
       <c r="C49" t="n">
-        <v>9.358774481074491</v>
+        <v>9.007999999999996</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>2.646941171336289</v>
+        <v>2.679263681592027</v>
       </c>
       <c r="B50" t="n">
         <v>0</v>
       </c>
       <c r="C50" t="n">
-        <v>11.1836888888889</v>
+        <v>11.48</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1.448733039569606</v>
+        <v>1.474169154228855</v>
       </c>
       <c r="B51" t="n">
         <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>6.979428275428271</v>
+        <v>6.668000000000005</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>6.43985345594151</v>
+        <v>6.385014925373119</v>
       </c>
       <c r="B52" t="n">
-        <v>0.06580386264299305</v>
+        <v>0.08000000000000002</v>
       </c>
       <c r="C52" t="n">
-        <v>23.76175418003015</v>
+        <v>23.608</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>5.503709452736315</v>
+        <v>5.297194029850736</v>
       </c>
       <c r="B53" t="n">
-        <v>0.05645116713352009</v>
+        <v>0.08000000000000003</v>
       </c>
       <c r="C53" t="n">
-        <v>22.05545454545457</v>
+        <v>21.41999999999999</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>2.055444902471759</v>
+        <v>2.098646766169148</v>
       </c>
       <c r="B54" t="n">
         <v>0</v>
       </c>
       <c r="C54" t="n">
-        <v>8.395500000000009</v>
+        <v>8.499999999999993</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>2.824816627389359</v>
+        <v>2.739721393034817</v>
       </c>
       <c r="B55" t="n">
         <v>0</v>
       </c>
       <c r="C55" t="n">
-        <v>11.01602962962963</v>
+        <v>11.04</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>6.564359237423295</v>
+        <v>6.628457711442779</v>
       </c>
       <c r="B56" t="n">
-        <v>0.05409055446779745</v>
+        <v>0.06000000000000001</v>
       </c>
       <c r="C56" t="n">
-        <v>26.98284109762633</v>
+        <v>27.48400000000001</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>6.670025936253633</v>
+        <v>6.537174129353231</v>
       </c>
       <c r="B57" t="n">
-        <v>0.03286050788102393</v>
+        <v>0.02</v>
       </c>
       <c r="C57" t="n">
-        <v>25.34510576786984</v>
+        <v>25.732</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>2.971533211137286</v>
+        <v>2.933950248756209</v>
       </c>
       <c r="B58" t="n">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="C58" t="n">
-        <v>12.37535396825396</v>
+        <v>12.516</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>6.079747887546383</v>
+        <v>6.17711442786069</v>
       </c>
       <c r="B59" t="n">
-        <v>0.004809866729015666</v>
+        <v>0.004</v>
       </c>
       <c r="C59" t="n">
-        <v>26.83098691970797</v>
+        <v>26.26399999999999</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>2.065063772407795</v>
+        <v>2.108696517412924</v>
       </c>
       <c r="B60" t="n">
         <v>0</v>
       </c>
       <c r="C60" t="n">
-        <v>8.745044444444453</v>
+        <v>9.468</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>7.003548871455926</v>
+        <v>7.004059701492524</v>
       </c>
       <c r="B61" t="n">
-        <v>0.03948116238780645</v>
+        <v>0.108</v>
       </c>
       <c r="C61" t="n">
-        <v>29.15485360871097</v>
+        <v>29.236</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>6.320531190632469</v>
+        <v>6.271064676616906</v>
       </c>
       <c r="B62" t="n">
-        <v>0.003483909645163845</v>
+        <v>0.008</v>
       </c>
       <c r="C62" t="n">
-        <v>24.17841794611103</v>
+        <v>24.108</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>6.875154738130857</v>
+        <v>6.875124378109445</v>
       </c>
       <c r="B63" t="n">
-        <v>0.02917777777777779</v>
+        <v>0.08400000000000002</v>
       </c>
       <c r="C63" t="n">
-        <v>28.70964736063949</v>
+        <v>29.104</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>2.08254884703466</v>
+        <v>2.196378109452726</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0003333333333333334</v>
+        <v>0</v>
       </c>
       <c r="C64" t="n">
-        <v>8.681044444444455</v>
+        <v>9.391999999999998</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>6.99539749115591</v>
+        <v>6.88346268656715</v>
       </c>
       <c r="B65" t="n">
-        <v>0.06819710327986189</v>
+        <v>0.036</v>
       </c>
       <c r="C65" t="n">
-        <v>32.48045289525287</v>
+        <v>30.86000000000002</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>5.521993422497897</v>
+        <v>5.561910447761189</v>
       </c>
       <c r="B66" t="n">
-        <v>0.001844444444444445</v>
+        <v>0</v>
       </c>
       <c r="C66" t="n">
-        <v>24.11453253968254</v>
+        <v>23.42</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>5.970421811429223</v>
+        <v>6.17522388059701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.03008607841907075</v>
+        <v>0.104</v>
       </c>
       <c r="C67" t="n">
-        <v>25.41589569504568</v>
+        <v>25.81999999999999</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2.442764530729805</v>
+        <v>2.36461691542288</v>
       </c>
       <c r="B68" t="n">
         <v>0</v>
       </c>
       <c r="C68" t="n">
-        <v>10.08218597698598</v>
+        <v>9.696</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>6.919554869124502</v>
+        <v>6.909930348258696</v>
       </c>
       <c r="B69" t="n">
-        <v>0.06339630428294836</v>
+        <v>0.07600000000000003</v>
       </c>
       <c r="C69" t="n">
-        <v>27.32953424902557</v>
+        <v>27.36399999999999</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2.184953479660189</v>
+        <v>2.242567164179098</v>
       </c>
       <c r="B70" t="n">
         <v>0</v>
       </c>
       <c r="C70" t="n">
-        <v>9.662164912864913</v>
+        <v>9.736000000000001</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>3.95385118455342</v>
+        <v>3.928557213930342</v>
       </c>
       <c r="B71" t="n">
         <v>0</v>
       </c>
       <c r="C71" t="n">
-        <v>15.11474175084175</v>
+        <v>15.46399999999998</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>4.330344232439746</v>
+        <v>4.355402985074621</v>
       </c>
       <c r="B72" t="n">
         <v>0</v>
       </c>
       <c r="C72" t="n">
-        <v>17.4755193917194</v>
+        <v>17.84800000000001</v>
       </c>
     </row>
   </sheetData>
